--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H2">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I2">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J2">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,22 +561,22 @@
         <v>26.648191</v>
       </c>
       <c r="O2">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="P2">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="Q2">
-        <v>160.2922413416165</v>
+        <v>43.18741443143089</v>
       </c>
       <c r="R2">
-        <v>1442.630172074549</v>
+        <v>388.6867298828779</v>
       </c>
       <c r="S2">
-        <v>0.6274122523311434</v>
+        <v>0.3734785803880054</v>
       </c>
       <c r="T2">
-        <v>0.6274122523311434</v>
+        <v>0.3734785803880053</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H3">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I3">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J3">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.733518</v>
+        <v>0.616144</v>
       </c>
       <c r="N3">
-        <v>2.200554</v>
+        <v>1.848432</v>
       </c>
       <c r="O3">
-        <v>0.07621469316727886</v>
+        <v>0.06483569448352988</v>
       </c>
       <c r="P3">
-        <v>0.07621469316727884</v>
+        <v>0.0648356944835299</v>
       </c>
       <c r="Q3">
-        <v>13.236610802334</v>
+        <v>2.995662963850667</v>
       </c>
       <c r="R3">
-        <v>119.129497221006</v>
+        <v>26.960966674656</v>
       </c>
       <c r="S3">
-        <v>0.05181044152364066</v>
+        <v>0.02590606466696976</v>
       </c>
       <c r="T3">
-        <v>0.05181044152364065</v>
+        <v>0.02590606466696976</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H4">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I4">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J4">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.008116333333333335</v>
+        <v>0.004286</v>
       </c>
       <c r="N4">
-        <v>0.024349</v>
+        <v>0.012858</v>
       </c>
       <c r="O4">
-        <v>0.0008433110770878938</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="P4">
-        <v>0.0008433110770878937</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="Q4">
-        <v>0.1464623165012222</v>
+        <v>0.02083832912933333</v>
       </c>
       <c r="R4">
-        <v>1.318160848511</v>
+        <v>0.187544962164</v>
       </c>
       <c r="S4">
-        <v>0.000573279474468305</v>
+        <v>0.0001802068885887591</v>
       </c>
       <c r="T4">
-        <v>0.0005732794744683049</v>
+        <v>0.0001802068885887591</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>1.800598</v>
       </c>
       <c r="I5">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J5">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,22 +747,22 @@
         <v>26.648191</v>
       </c>
       <c r="O5">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="P5">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="Q5">
         <v>5.331408824246445</v>
       </c>
       <c r="R5">
-        <v>47.98267941821801</v>
+        <v>47.982679418218</v>
       </c>
       <c r="S5">
-        <v>0.02086807939374754</v>
+        <v>0.04610526064969794</v>
       </c>
       <c r="T5">
-        <v>0.02086807939374754</v>
+        <v>0.04610526064969793</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.800598</v>
       </c>
       <c r="I6">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J6">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.733518</v>
+        <v>0.616144</v>
       </c>
       <c r="N6">
-        <v>2.200554</v>
+        <v>1.848432</v>
       </c>
       <c r="O6">
-        <v>0.07621469316727886</v>
+        <v>0.06483569448352988</v>
       </c>
       <c r="P6">
-        <v>0.07621469316727884</v>
+        <v>0.0648356944835299</v>
       </c>
       <c r="Q6">
-        <v>0.440257014588</v>
+        <v>0.3698092180373334</v>
       </c>
       <c r="R6">
-        <v>3.962313131292</v>
+        <v>3.328282962336</v>
       </c>
       <c r="S6">
-        <v>0.001723244012407023</v>
+        <v>0.003198057202203424</v>
       </c>
       <c r="T6">
-        <v>0.001723244012407023</v>
+        <v>0.003198057202203424</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,40 +853,40 @@
         <v>1.800598</v>
       </c>
       <c r="I7">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J7">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.008116333333333335</v>
+        <v>0.004286</v>
       </c>
       <c r="N7">
-        <v>0.024349</v>
+        <v>0.012858</v>
       </c>
       <c r="O7">
-        <v>0.0008433110770878938</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="P7">
-        <v>0.0008433110770878937</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="Q7">
-        <v>0.00487141785577778</v>
+        <v>0.002572454342666667</v>
       </c>
       <c r="R7">
-        <v>0.04384276070200001</v>
+        <v>0.023152089084</v>
       </c>
       <c r="S7">
-        <v>1.906759318703318E-05</v>
+        <v>2.224621706718539E-05</v>
       </c>
       <c r="T7">
-        <v>1.906759318703318E-05</v>
+        <v>2.224621706718539E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H8">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I8">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J8">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,22 +933,22 @@
         <v>26.648191</v>
       </c>
       <c r="O8">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="P8">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="Q8">
-        <v>28.51049390621477</v>
+        <v>37.36746432158144</v>
       </c>
       <c r="R8">
-        <v>256.594445155933</v>
+        <v>336.3071788942329</v>
       </c>
       <c r="S8">
-        <v>0.1115951280427155</v>
+        <v>0.3231484846049694</v>
       </c>
       <c r="T8">
-        <v>0.1115951280427155</v>
+        <v>0.3231484846049694</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H9">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I9">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J9">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.733518</v>
+        <v>0.616144</v>
       </c>
       <c r="N9">
-        <v>2.200554</v>
+        <v>1.848432</v>
       </c>
       <c r="O9">
-        <v>0.07621469316727886</v>
+        <v>0.06483569448352988</v>
       </c>
       <c r="P9">
-        <v>0.07621469316727884</v>
+        <v>0.0648356944835299</v>
       </c>
       <c r="Q9">
-        <v>2.354339227278</v>
+        <v>2.591966441957333</v>
       </c>
       <c r="R9">
-        <v>21.189053045502</v>
+        <v>23.327697977616</v>
       </c>
       <c r="S9">
-        <v>0.009215301158525537</v>
+        <v>0.02241495490989736</v>
       </c>
       <c r="T9">
-        <v>0.009215301158525533</v>
+        <v>0.02241495490989737</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H10">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I10">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J10">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.008116333333333335</v>
+        <v>0.004286</v>
       </c>
       <c r="N10">
-        <v>0.024349</v>
+        <v>0.012858</v>
       </c>
       <c r="O10">
-        <v>0.0008433110770878938</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="P10">
-        <v>0.0008433110770878937</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="Q10">
-        <v>0.02605062445411111</v>
+        <v>0.01803014907266666</v>
       </c>
       <c r="R10">
-        <v>0.234455620087</v>
+        <v>0.162271341654</v>
       </c>
       <c r="S10">
-        <v>0.0001019667628737756</v>
+        <v>0.0001559221492765004</v>
       </c>
       <c r="T10">
-        <v>0.0001019667628737755</v>
+        <v>0.0001559221492765005</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H11">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I11">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J11">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>26.648191</v>
       </c>
       <c r="O11">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="P11">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="Q11">
-        <v>41.66048789168144</v>
+        <v>22.19983216365089</v>
       </c>
       <c r="R11">
-        <v>374.944391025133</v>
+        <v>199.798489472858</v>
       </c>
       <c r="S11">
-        <v>0.1630665359880268</v>
+        <v>0.1919809720143418</v>
       </c>
       <c r="T11">
-        <v>0.1630665359880268</v>
+        <v>0.1919809720143418</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H12">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I12">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J12">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.733518</v>
+        <v>0.616144</v>
       </c>
       <c r="N12">
-        <v>2.200554</v>
+        <v>1.848432</v>
       </c>
       <c r="O12">
-        <v>0.07621469316727886</v>
+        <v>0.06483569448352988</v>
       </c>
       <c r="P12">
-        <v>0.07621469316727884</v>
+        <v>0.0648356944835299</v>
       </c>
       <c r="Q12">
-        <v>3.440239274478</v>
+        <v>1.539874889290667</v>
       </c>
       <c r="R12">
-        <v>30.962153470302</v>
+        <v>13.858874003616</v>
       </c>
       <c r="S12">
-        <v>0.01346570647270564</v>
+        <v>0.01331661770445934</v>
       </c>
       <c r="T12">
-        <v>0.01346570647270564</v>
+        <v>0.01331661770445934</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H13">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I13">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J13">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.008116333333333335</v>
+        <v>0.004286</v>
       </c>
       <c r="N13">
-        <v>0.024349</v>
+        <v>0.012858</v>
       </c>
       <c r="O13">
-        <v>0.0008433110770878938</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="P13">
-        <v>0.0008433110770878937</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="Q13">
-        <v>0.03806604432077779</v>
+        <v>0.01071162548933333</v>
       </c>
       <c r="R13">
-        <v>0.3425943988870001</v>
+        <v>0.09640462940400001</v>
       </c>
       <c r="S13">
-        <v>0.0001489972465587801</v>
+        <v>9.263260452315158E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001489972465587801</v>
+        <v>9.263260452315158E-05</v>
       </c>
     </row>
   </sheetData>
